--- a/RQ3/result/GA/GA_4.xlsx
+++ b/RQ3/result/GA/GA_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F3583E-CE75-497B-8251-1C11DF017342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3AB6E-E008-4A49-AF5C-287EC95C2802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -223,42 +211,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>java.lang.Class.getConstructors()</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>There are no relevant resources on the web</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>API documentation does not say</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>API document contains the answer.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>java.lang.Throwable.getCause()</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -283,34 +239,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>there are relevant resources on the web</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/io/BufferedWriter.html</t>
-  </si>
-  <si>
-    <t>http://www.hackerav.com/?post=15824</t>
-  </si>
-  <si>
     <t>Is there any performance difference between HashMap and LinkedHashMap for traversal through values() function? which perform better for iteratetion.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Iteration over a HashMap is likely to be more expensive, requiring time proportional to its capacity.</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/util/LinkedHashMap.html</t>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>java.util.Scanner.nextLine()</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -319,39 +251,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.quora.com/What-is-the-difference-between-next-and-next-line-in-Java</t>
-  </si>
-  <si>
     <t>java.util.HashMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>java.util.ArrayList</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://beginnersbook.com/2013/12/difference-between-arraylist-and-hashmap-in-java/</t>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
@@ -764,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,21 +681,16 @@
     <col min="2" max="2" width="46.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="70.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="85.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="40.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="38.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="30.5" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -821,23 +721,8 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -845,22 +730,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -868,17 +753,8 @@
       <c r="J2" s="1">
         <v>50</v>
       </c>
-      <c r="K2" s="1">
-        <v>240</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -886,22 +762,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -909,14 +785,8 @@
       <c r="J3" s="3">
         <v>800</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -924,22 +794,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -947,17 +817,8 @@
       <c r="J4" s="1">
         <v>100</v>
       </c>
-      <c r="K4" s="1">
-        <v>260</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -965,22 +826,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -988,17 +849,8 @@
       <c r="J5" s="3">
         <v>300</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1006,22 +858,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -1029,17 +881,8 @@
       <c r="J6" s="1">
         <v>48</v>
       </c>
-      <c r="K6" s="1">
-        <v>130</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1047,22 +890,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -1070,17 +913,8 @@
       <c r="J7" s="3">
         <v>120</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1088,22 +922,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1111,17 +945,8 @@
       <c r="J8" s="1">
         <v>120</v>
       </c>
-      <c r="K8" s="1">
-        <v>315</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1129,22 +954,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -1152,17 +977,8 @@
       <c r="J9" s="3">
         <v>129</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1170,22 +986,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1193,17 +1009,8 @@
       <c r="J10" s="1">
         <v>30</v>
       </c>
-      <c r="K10" s="1">
-        <v>85</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1211,22 +1018,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1234,17 +1041,8 @@
       <c r="J11" s="3">
         <v>108</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1252,22 +1050,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1275,17 +1073,8 @@
       <c r="J12" s="1">
         <v>40</v>
       </c>
-      <c r="K12" s="1">
-        <v>105</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1293,37 +1082,28 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>112</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/RQ3/result/GA/GA_4.xlsx
+++ b/RQ3/result/GA/GA_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3AB6E-E008-4A49-AF5C-287EC95C2802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45ECFBF-BA79-4E3F-829F-671C6AC059D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -264,6 +260,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +672,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -730,22 +730,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -762,22 +762,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -794,22 +794,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -826,22 +826,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -858,22 +858,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -890,22 +890,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -922,22 +922,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -954,22 +954,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -986,22 +986,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1018,22 +1018,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1050,22 +1050,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1082,22 +1082,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
